--- a/assets/aralikmenu2024.xlsx
+++ b/assets/aralikmenu2024.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45574016-FC7F-4196-BA85-06D8C45E1D5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B5C026-F5E4-42D3-89D7-AAF8970CA792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -570,7 +570,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -582,37 +582,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -859,18 +828,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -879,82 +860,61 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1240,10 +1200,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="A22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2124,107 +2084,89 @@
         <v>159</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="30"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="32"/>
+    <row r="22" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="9">
+        <v>45656</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="I22" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="J22" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="K22" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="L22" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="M22" s="11" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="23" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="9">
-        <v>45656</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="F23" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="G23" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="H23" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="I23" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="J23" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="K23" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="L23" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="M23" s="11" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="5">
+      <c r="A23" s="5">
         <v>45657</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B23" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="C23" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D23" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="E24" s="27" t="s">
+      <c r="E23" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="F24" s="27" t="s">
+      <c r="F23" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="G24" s="27" t="s">
+      <c r="G23" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="H24" s="25" t="s">
+      <c r="H23" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="I24" s="27" t="s">
+      <c r="I23" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="J24" s="27" t="s">
+      <c r="J23" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="K24" s="25" t="s">
+      <c r="K23" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="L24" s="27" t="s">
+      <c r="L23" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="M24" s="26" t="s">
+      <c r="M23" s="26" t="s">
         <v>161</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A22:M22"/>
-  </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="53" fitToHeight="0" orientation="landscape" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
